--- a/TD 1/Classeur1.xlsx
+++ b/TD 1/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxime.girardet\Documents\Cours ISITECH\Modélisation de données\TD 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92AB7AC-0C54-422A-9D72-C85F8CC58C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15EB2C7-5919-40AC-AD45-48B7168D51C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E55DEC3B-254F-4D54-9CE5-7105C4B62AD6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Nom de la donnée</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Prénom</t>
   </si>
   <si>
-    <t>Incrémentation</t>
-  </si>
-  <si>
     <t>ELEMENTAIRE</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">INT </t>
-  </si>
-  <si>
-    <t>CALCULE</t>
   </si>
   <si>
     <t>Ville</t>
@@ -131,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -171,6 +165,144 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -180,11 +312,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62463F5-3AD4-4842-8BD1-1F13C62743CD}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,9 +659,14 @@
     <col min="5" max="5" width="16.77734375" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,28 +688,36 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -568,13 +728,20 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -585,15 +752,22 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -602,32 +776,46 @@
         <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -636,15 +824,22 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -653,15 +848,23 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -670,30 +873,52 @@
         <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
+      <c r="H9" s="9"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>